--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.08355699602986</v>
+        <v>1.082277333333333</v>
       </c>
       <c r="H2">
-        <v>1.08355699602986</v>
+        <v>3.246832</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3794857194016649</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3794857194016649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N2">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q2">
-        <v>27.71557226394472</v>
+        <v>38.21645004375111</v>
       </c>
       <c r="R2">
-        <v>27.71557226394472</v>
+        <v>343.94805039376</v>
       </c>
       <c r="S2">
-        <v>0.5418103263670895</v>
+        <v>0.2348207452215408</v>
       </c>
       <c r="T2">
-        <v>0.5418103263670895</v>
+        <v>0.2348207452215408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.08355699602986</v>
+        <v>1.082277333333333</v>
       </c>
       <c r="H3">
-        <v>1.08355699602986</v>
+        <v>3.246832</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3794857194016649</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3794857194016649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N3">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q3">
-        <v>7.005747321212734</v>
+        <v>7.090390595061334</v>
       </c>
       <c r="R3">
-        <v>7.005747321212734</v>
+        <v>63.813515355552</v>
       </c>
       <c r="S3">
-        <v>0.136955001556637</v>
+        <v>0.04356686195442034</v>
       </c>
       <c r="T3">
-        <v>0.136955001556637</v>
+        <v>0.04356686195442034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.08355699602986</v>
+        <v>1.082277333333333</v>
       </c>
       <c r="H4">
-        <v>1.08355699602986</v>
+        <v>3.246832</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3794857194016649</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3794857194016649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N4">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q4">
-        <v>11.86484471570089</v>
+        <v>11.85300936109333</v>
       </c>
       <c r="R4">
-        <v>11.86484471570089</v>
+        <v>106.67708424984</v>
       </c>
       <c r="S4">
-        <v>0.2319452518060248</v>
+        <v>0.07283074404094071</v>
       </c>
       <c r="T4">
-        <v>0.2319452518060248</v>
+        <v>0.07283074404094071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.082277333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.246832</v>
+      </c>
+      <c r="I5">
+        <v>0.3794857194016649</v>
+      </c>
+      <c r="J5">
+        <v>0.3794857194016649</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.250702333333333</v>
+      </c>
+      <c r="N5">
+        <v>12.752107</v>
+      </c>
+      <c r="O5">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="P5">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="Q5">
+        <v>4.600438786113777</v>
+      </c>
+      <c r="R5">
+        <v>41.40394907502399</v>
+      </c>
+      <c r="S5">
+        <v>0.02826736818476307</v>
+      </c>
+      <c r="T5">
+        <v>0.02826736818476307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6384863333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.915459</v>
+      </c>
+      <c r="I6">
+        <v>0.2238764853245852</v>
+      </c>
+      <c r="J6">
+        <v>0.2238764853245852</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>35.31114333333333</v>
+      </c>
+      <c r="N6">
+        <v>105.93343</v>
+      </c>
+      <c r="O6">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="P6">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="Q6">
+        <v>22.54568243270778</v>
+      </c>
+      <c r="R6">
+        <v>202.91114189437</v>
+      </c>
+      <c r="S6">
+        <v>0.1385318087974085</v>
+      </c>
+      <c r="T6">
+        <v>0.1385318087974085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.6384863333333334</v>
+      </c>
+      <c r="H7">
+        <v>1.915459</v>
+      </c>
+      <c r="I7">
+        <v>0.2238764853245852</v>
+      </c>
+      <c r="J7">
+        <v>0.2238764853245852</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.551362</v>
+      </c>
+      <c r="N7">
+        <v>19.654086</v>
+      </c>
+      <c r="O7">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="P7">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="Q7">
+        <v>4.182955101719334</v>
+      </c>
+      <c r="R7">
+        <v>37.646595915474</v>
+      </c>
+      <c r="S7">
+        <v>0.02570214222120271</v>
+      </c>
+      <c r="T7">
+        <v>0.02570214222120271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6384863333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.915459</v>
+      </c>
+      <c r="I8">
+        <v>0.2238764853245852</v>
+      </c>
+      <c r="J8">
+        <v>0.2238764853245852</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.951915</v>
+      </c>
+      <c r="N8">
+        <v>32.855745</v>
+      </c>
+      <c r="O8">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="P8">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="Q8">
+        <v>6.992648051328334</v>
+      </c>
+      <c r="R8">
+        <v>62.933832461955</v>
+      </c>
+      <c r="S8">
+        <v>0.04296628348800193</v>
+      </c>
+      <c r="T8">
+        <v>0.04296628348800192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6384863333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.915459</v>
+      </c>
+      <c r="I9">
+        <v>0.2238764853245852</v>
+      </c>
+      <c r="J9">
+        <v>0.2238764853245852</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.250702333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.752107</v>
+      </c>
+      <c r="O9">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="P9">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="Q9">
+        <v>2.714015346901444</v>
+      </c>
+      <c r="R9">
+        <v>24.426138122113</v>
+      </c>
+      <c r="S9">
+        <v>0.01667625081797213</v>
+      </c>
+      <c r="T9">
+        <v>0.01667625081797213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.08355699602986</v>
-      </c>
-      <c r="H5">
-        <v>1.08355699602986</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.21526434417487</v>
-      </c>
-      <c r="N5">
-        <v>4.21526434417487</v>
-      </c>
-      <c r="O5">
-        <v>0.0892894202702489</v>
-      </c>
-      <c r="P5">
-        <v>0.0892894202702489</v>
-      </c>
-      <c r="Q5">
-        <v>4.567479170245901</v>
-      </c>
-      <c r="R5">
-        <v>4.567479170245901</v>
-      </c>
-      <c r="S5">
-        <v>0.0892894202702489</v>
-      </c>
-      <c r="T5">
-        <v>0.0892894202702489</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.131194333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.393583</v>
+      </c>
+      <c r="I10">
+        <v>0.39663779527375</v>
+      </c>
+      <c r="J10">
+        <v>0.39663779527375</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>35.31114333333333</v>
+      </c>
+      <c r="N10">
+        <v>105.93343</v>
+      </c>
+      <c r="O10">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="P10">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="Q10">
+        <v>39.94376524218778</v>
+      </c>
+      <c r="R10">
+        <v>359.49388717969</v>
+      </c>
+      <c r="S10">
+        <v>0.2454342229690825</v>
+      </c>
+      <c r="T10">
+        <v>0.2454342229690825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.131194333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.393583</v>
+      </c>
+      <c r="I11">
+        <v>0.39663779527375</v>
+      </c>
+      <c r="J11">
+        <v>0.39663779527375</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.551362</v>
+      </c>
+      <c r="N11">
+        <v>19.654086</v>
+      </c>
+      <c r="O11">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="P11">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="Q11">
+        <v>7.410863570015334</v>
+      </c>
+      <c r="R11">
+        <v>66.69777213013799</v>
+      </c>
+      <c r="S11">
+        <v>0.04553600620292878</v>
+      </c>
+      <c r="T11">
+        <v>0.04553600620292878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.131194333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.393583</v>
+      </c>
+      <c r="I12">
+        <v>0.39663779527375</v>
+      </c>
+      <c r="J12">
+        <v>0.39663779527375</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.951915</v>
+      </c>
+      <c r="N12">
+        <v>32.855745</v>
+      </c>
+      <c r="O12">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="P12">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="Q12">
+        <v>12.38874418714833</v>
+      </c>
+      <c r="R12">
+        <v>111.498697684335</v>
+      </c>
+      <c r="S12">
+        <v>0.07612256342634535</v>
+      </c>
+      <c r="T12">
+        <v>0.07612256342634535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.131194333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.393583</v>
+      </c>
+      <c r="I13">
+        <v>0.39663779527375</v>
+      </c>
+      <c r="J13">
+        <v>0.39663779527375</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.250702333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.752107</v>
+      </c>
+      <c r="O13">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="P13">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="Q13">
+        <v>4.808370392153444</v>
+      </c>
+      <c r="R13">
+        <v>43.27533352938099</v>
+      </c>
+      <c r="S13">
+        <v>0.02954500267539337</v>
+      </c>
+      <c r="T13">
+        <v>0.02954500267539337</v>
       </c>
     </row>
   </sheetData>
